--- a/pickle/rolling_corr_excel_target_index_상해종합_simulation_term_type_2_window_size_27.xlsx
+++ b/pickle/rolling_corr_excel_target_index_상해종합_simulation_term_type_2_window_size_27.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>상해종합_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>상해종합_CNY/USD</t>
   </si>
   <si>
-    <t>상해종합_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>상해종합_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>상해종합_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>상해종합_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_OECD 소비자물가</t>
   </si>
   <si>
-    <t>상해종합_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>상해종합_두바이유가</t>
   </si>
   <si>
-    <t>상해종합_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>상해종합_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>상해종합_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>상해종합_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>상해종합_미국 REER</t>
   </si>
   <si>
-    <t>상해종합_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>상해종합_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>상해종합_발틱 해운임지수</t>
   </si>
   <si>
-    <t>상해종합_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>상해종합_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>상해종합_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>상해종합_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>상해종합_유로존 Core CPI</t>
   </si>
   <si>
-    <t>상해종합_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>상해종합_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>상해종합_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>상해종합_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>상해종합_일본 ESI</t>
   </si>
   <si>
-    <t>상해종합_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_일본 REER</t>
   </si>
   <si>
-    <t>상해종합_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>상해종합_중국 M1 YoY</t>
   </si>
   <si>
-    <t>상해종합_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>상해종합_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>상해종합_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,924 +1893,774 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2894,112 +2669,112 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>2</v>
       </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
       <c r="AK3" t="n">
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -3014,38 +2789,38 @@
         <v>0</v>
       </c>
       <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF3" t="n">
         <v>2</v>
       </c>
-      <c r="AW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
       <c r="BG3" t="n">
         <v>0</v>
       </c>
@@ -3053,64 +2828,64 @@
         <v>0</v>
       </c>
       <c r="BI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
         <v>2</v>
       </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
       <c r="BR3" t="n">
         <v>3</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX3" t="n">
         <v>3</v>
       </c>
       <c r="BY3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
         <v>0</v>
       </c>
       <c r="CB3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CC3" t="n">
         <v>0</v>
@@ -3125,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="CG3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH3" t="n">
         <v>1</v>
@@ -3140,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CM3" t="n">
         <v>0</v>
@@ -3155,16 +2930,16 @@
         <v>2</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CR3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CS3" t="n">
         <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CU3" t="n">
         <v>0</v>
@@ -3182,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
@@ -3191,22 +2966,22 @@
         <v>0</v>
       </c>
       <c r="DC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DH3" t="n">
         <v>2</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>0</v>
       </c>
       <c r="DI3" t="n">
         <v>2</v>
@@ -3218,136 +2993,136 @@
         <v>0</v>
       </c>
       <c r="DL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
         <v>2</v>
       </c>
-      <c r="DM3" t="n">
+      <c r="ED3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EH3" t="n">
         <v>2</v>
       </c>
-      <c r="DN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DT3" t="n">
+      <c r="EI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ3" t="n">
         <v>2</v>
       </c>
-      <c r="DU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" t="n">
+      <c r="EK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
         <v>2</v>
       </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" t="n">
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
         <v>2</v>
       </c>
-      <c r="EQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>3</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>0</v>
-      </c>
       <c r="EY3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>0</v>
       </c>
       <c r="FC3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FD3" t="n">
         <v>2</v>
@@ -3362,22 +3137,22 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>0</v>
@@ -3389,43 +3164,43 @@
         <v>0</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
         <v>2</v>
       </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>0</v>
-      </c>
       <c r="FW3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GA3" t="n">
         <v>0</v>
       </c>
       <c r="GB3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD3" t="n">
         <v>0</v>
@@ -3434,163 +3209,163 @@
         <v>0</v>
       </c>
       <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GM3" t="n">
         <v>2</v>
       </c>
-      <c r="GG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH3" t="n">
+      <c r="GN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
         <v>2</v>
       </c>
-      <c r="GI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK3" t="n">
+      <c r="GW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HG3" t="n">
         <v>2</v>
       </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GN3" t="n">
+      <c r="HH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HO3" t="n">
         <v>2</v>
       </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX3" t="n">
+      <c r="HP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
         <v>2</v>
       </c>
-      <c r="GY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
       <c r="IC3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ID3" t="n">
         <v>0</v>
       </c>
       <c r="IE3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
@@ -3599,930 +3374,780 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IJ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO3" t="n">
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9250909167509923</v>
+        <v>-0.5173278543179326</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9011596723280109</v>
+        <v>0.3714148908005895</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8766038565910065</v>
+        <v>0.7800715874293194</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8019363564481531</v>
+        <v>-0.06344611225352427</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7395980325522064</v>
+        <v>0.6396886822604589</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6351488372662956</v>
+        <v>0.576708399627521</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7883073912877728</v>
+        <v>0.2273263517637392</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8194479583970874</v>
+        <v>0.450599336666951</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8134803754083414</v>
+        <v>-0.2984293494107605</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8363515566264749</v>
+        <v>0.5441820042068068</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8646211820636857</v>
+        <v>-0.8628980147244079</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7479714549220364</v>
+        <v>0.3929960034102589</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8697189664170037</v>
+        <v>-0.8042633885372084</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8991511762923252</v>
+        <v>0.3870072600694897</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5945164315688292</v>
+        <v>0.4194145776458895</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6489946014565164</v>
+        <v>0.4429310205419596</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.7775211047378909</v>
+        <v>0.3373006791018081</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8767199205586101</v>
+        <v>0.2792062011745843</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8777721299362944</v>
+        <v>0.4222247759976963</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6976027292441319</v>
+        <v>0.5360145506997113</v>
       </c>
       <c r="V4" t="n">
-        <v>0.62746789317259</v>
+        <v>0.6984953185328359</v>
       </c>
       <c r="W4" t="n">
-        <v>0.776800288165707</v>
+        <v>0.4141509753760017</v>
       </c>
       <c r="X4" t="n">
-        <v>0.591984727623471</v>
+        <v>0.4748311264286547</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7018853972420096</v>
+        <v>0.2819725634260354</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.6631860828693793</v>
+        <v>0.5794529709981718</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8972783467709982</v>
+        <v>0.3577285090289489</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7084071369332642</v>
+        <v>0.5240997185609025</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8687538252434325</v>
+        <v>0.19726432165713</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8732095173867362</v>
+        <v>0.4731313941015262</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.2817428920403476</v>
+        <v>0.3945847390616468</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8588665454440239</v>
+        <v>0.2612027356610018</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6173667635300509</v>
+        <v>0.6201116778898328</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.8355998507838571</v>
+        <v>0.3961099122560653</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.5808991561311438</v>
+        <v>0.5280124177075759</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.8732974686156622</v>
+        <v>-0.4381923730725661</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6729395602212095</v>
+        <v>0.5818413794227353</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.5944039555162111</v>
+        <v>-0.4454569867927251</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.6159484988109116</v>
+        <v>-0.5354523991529559</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.3368477241084696</v>
+        <v>-0.2549218944788701</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.8108402346983072</v>
+        <v>0.5544574328557198</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3441239183900322</v>
+        <v>0.1011651113328273</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.7494289039900424</v>
+        <v>-0.4442290362397669</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.3078322696788835</v>
+        <v>-0.7024924829525648</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.6373676658243888</v>
+        <v>0.455394931785488</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.6448955101892195</v>
+        <v>0.3980581331320165</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9012607943123199</v>
+        <v>0.388879961596471</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.3923392691972327</v>
+        <v>0.4319586009810465</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.6744953443480718</v>
+        <v>0.5061371668465715</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.7765980596270676</v>
+        <v>0.4647068364135218</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.8516660489340657</v>
+        <v>0.3760174049659252</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.8653986840232007</v>
+        <v>0.3734837606007629</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.8840212085069206</v>
+        <v>0.456539947391104</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.826470578063999</v>
+        <v>0.390151067527249</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.856624685989497</v>
+        <v>-0.04953695309331844</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.8614910941141586</v>
+        <v>0.4631749982842306</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.8657271085701511</v>
+        <v>0.6663679931769536</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.8853289230059902</v>
+        <v>0.3972991030277352</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.8208601349554199</v>
+        <v>-0.5060508472661942</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.8153950029590713</v>
+        <v>0.4186058239651825</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.6672851498022522</v>
+        <v>-0.3399849646385487</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.856235893856741</v>
+        <v>0.492461912790057</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.5516376280679008</v>
+        <v>0.211487708386253</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.4667032798581895</v>
+        <v>0.4590946806640792</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.8437278864979483</v>
+        <v>-0.1834182924421916</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.7840884448333025</v>
+        <v>0.322905451010235</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.8677828115885865</v>
+        <v>-0.1572835739786522</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.3701389413935596</v>
+        <v>0.3728121245752673</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8276679361667374</v>
+        <v>0.8049004957375715</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.1834220597287655</v>
+        <v>0.2556252713909338</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.909351993373954</v>
+        <v>0.3454611428213134</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.6639507306757078</v>
+        <v>0.8275448572472536</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.6530164512995245</v>
+        <v>0.7967168163201777</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.1938198040941438</v>
+        <v>0.5445157381253336</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.8747083763026177</v>
+        <v>0.6767767082992135</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.6692242860586276</v>
+        <v>-0.799733012736202</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.8712706786168495</v>
+        <v>-0.5853630343001299</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.769632374374713</v>
+        <v>0.1736316216317797</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.8488922161717789</v>
+        <v>0.4722438726162958</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.7531633163556598</v>
+        <v>0.05919996477340726</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.7393800259317974</v>
+        <v>0.5982655726809165</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.8005748026092758</v>
+        <v>0.7238249944039972</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.8039721929196554</v>
+        <v>0.7026666569991034</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.8556414778336595</v>
+        <v>0.3099035933025528</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8770712599459751</v>
+        <v>-0.77079937711998</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.3193844612598245</v>
+        <v>-0.1402073799493379</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.5105873359505088</v>
+        <v>0.676550328393875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.8167561963031259</v>
+        <v>0.2081132363196467</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.5858264212374458</v>
+        <v>0.7399994673521879</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.8589487299834674</v>
+        <v>0.2873978910195078</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.6651731339796054</v>
+        <v>0.7073767461351133</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7576945702319703</v>
+        <v>0.2410218655798422</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.5099959632017662</v>
+        <v>-0.3931349651772272</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.7394672655398533</v>
+        <v>0.1890368370541434</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.7511880746274527</v>
+        <v>0.1716018846777712</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.5533604992876124</v>
+        <v>0.4900711112963584</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.1723760774556233</v>
+        <v>0.5936622248171075</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.5071706031988394</v>
+        <v>-0.2121167102264876</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.1839699297600755</v>
+        <v>0.4131636212003322</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.6368701782258496</v>
+        <v>0.690398773575773</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.8027468511073615</v>
+        <v>0.4177713778752352</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.2300214453812342</v>
+        <v>-0.05934360826243954</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.6537981852019846</v>
+        <v>-0.2418422041640296</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.8308588987520052</v>
+        <v>-0.1707826931016215</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.425795296983036</v>
+        <v>0.560253751478473</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.8736626683452793</v>
+        <v>0.6245311652276266</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.5247318551405563</v>
+        <v>-0.5176724022095824</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8846806838479612</v>
+        <v>0.5417546363369938</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.9079191440407116</v>
+        <v>0.7369647998006187</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8602175369732085</v>
+        <v>-0.2233343431534515</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.8410833084839561</v>
+        <v>0.04552005463479186</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.3736425630061761</v>
+        <v>0.5417926301163031</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.619331260234307</v>
+        <v>0.1943819318813018</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.6271075033203344</v>
+        <v>-0.7432684337596577</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.807593113322797</v>
+        <v>0.3118772652336488</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.716931431405133</v>
+        <v>0.4828821214670587</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.6295719226231535</v>
+        <v>-0.2463309380879003</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.74685720540796</v>
+        <v>0.4373286046730461</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.1797477458445016</v>
+        <v>-0.2922855106133153</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8147732208406917</v>
+        <v>-0.5183597342543036</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8781489414622478</v>
+        <v>0.2410218655798422</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.8324760951171358</v>
+        <v>0.1624978119589516</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.27545836114693</v>
+        <v>0.3508989510990126</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7383140902794101</v>
+        <v>0.2242837585228698</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.7075238214170122</v>
+        <v>0.09190866030732298</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.4722707045838579</v>
+        <v>0.2973366428289185</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.5312783024811003</v>
+        <v>0.6997226561431633</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.5517675091724117</v>
+        <v>-0.5687301205235803</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.7177758719745607</v>
+        <v>0.2607228553792603</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.7688118278099834</v>
+        <v>0.4312380279390282</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.3185427184306124</v>
+        <v>0.4544191343959308</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.3947134325630943</v>
+        <v>0.3632270982898861</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.7314165347126235</v>
+        <v>0.2003966460851111</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.8027468511073615</v>
+        <v>-0.5155307829090495</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.7678259244699445</v>
+        <v>-0.4617711380176365</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.7061744687944784</v>
+        <v>-0.1285132377677631</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.7075501647229924</v>
+        <v>-0.0549980787629151</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.7378108165488741</v>
+        <v>0.3066198823401889</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.5103221141157657</v>
+        <v>-0.3094421654451677</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.8247685922896442</v>
+        <v>0.2106850281072081</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9092444027350212</v>
+        <v>0.4407430232274417</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.8543922862709873</v>
+        <v>0.4077698602804853</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.5743328612558447</v>
+        <v>0.4043443331586367</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.8441471881563174</v>
+        <v>0.3083637457194341</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.8834863380087198</v>
+        <v>-0.3211208651055123</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.6168499557061142</v>
+        <v>0.1342425296001919</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.5787144187316404</v>
+        <v>0.09708098460548324</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.4620740717180252</v>
+        <v>-0.07025717405029797</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.3087844296691096</v>
+        <v>-0.5543259915672324</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.5707972842032482</v>
+        <v>0.0671931761328676</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.8549617523548567</v>
+        <v>-0.528491188481604</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.4182837295956296</v>
+        <v>0.2427642603957345</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.7422560312771106</v>
+        <v>0.458076985059356</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.8467206727124532</v>
+        <v>0.4425362354179516</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8083936728529979</v>
+        <v>0.4635787112620093</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8462388450125109</v>
+        <v>1</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8639931259059562</v>
+        <v>0.9473026094489131</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.8654959131232489</v>
+        <v>-0.7063609110427695</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.77619642443104</v>
+        <v>0.5441820042068068</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2348841844280664</v>
+        <v>0.4839090279350717</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.4452474463109716</v>
+        <v>0.705097315611705</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.9082851237410449</v>
+        <v>0.3781967693255692</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.7220903327687174</v>
+        <v>-0.2182807054108199</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9317435957471903</v>
+        <v>0.4602887473355185</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.5966941113762166</v>
+        <v>0.5041319208222192</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7235883887957971</v>
+        <v>0.4282201763057378</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8731058362694194</v>
+        <v>0.3841159926977631</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.8634518764547106</v>
+        <v>0.4521511941354704</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.7901285255312528</v>
+        <v>0.4249693184102607</v>
       </c>
       <c r="FN4" t="n">
-        <v>1</v>
+        <v>0.7189793814392529</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.9792183474771611</v>
+        <v>-0.2826290636026314</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.4991409010006749</v>
+        <v>-0.6660788813981784</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.6489946014565164</v>
+        <v>0.2290113573143495</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.7944211852574757</v>
+        <v>0.379258728239589</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.4995481638489044</v>
+        <v>0.7345889322263022</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.3728094455106649</v>
+        <v>-0.1321449346143203</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.387620019328814</v>
+        <v>0.4249693184102607</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.7648143973115283</v>
+        <v>0.8292483811682116</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.5375042521917281</v>
+        <v>0.3499873979953195</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.1842063970566584</v>
+        <v>0.5171778699910735</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.317973247723464</v>
+        <v>-0.6883544690445895</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.6684831469378881</v>
+        <v>0.3774882449045443</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4587711138687136</v>
+        <v>-0.4554311259489695</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.2912450975484138</v>
+        <v>0.64594377083909</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.7670614239216498</v>
+        <v>0.5385944332817734</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.796850988059869</v>
+        <v>-0.4197672487504815</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.2428357444272322</v>
+        <v>0.5296300029503798</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.89750749716064</v>
+        <v>0.2635399730954082</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.8086024991194534</v>
+        <v>0.1599125546329289</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.3991995776482347</v>
+        <v>0.3285407541531321</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.7509882533334826</v>
+        <v>-0.1587070790146581</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.655418197705504</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.5564660643019648</v>
+        <v>-0.3771301082178506</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.7670614239216498</v>
+        <v>0.2577495341098878</v>
       </c>
       <c r="GM4" t="n">
-        <v>-0.425164038674954</v>
+        <v>0.4658141815753539</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.7786577472820869</v>
+        <v>0.6460707165961349</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.4109142814518581</v>
+        <v>-0.803359574232822</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.6736342679806068</v>
+        <v>-0.4040355184485431</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.8482720609731208</v>
+        <v>-7.355238558278199e-16</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.267757217339712</v>
+        <v>-7.355238558278199e-16</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.8139982709658938</v>
+        <v>0.4168000151860509</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.3857316332190154</v>
+        <v>0.3199211319884697</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.725568787954517</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.790005764495767</v>
+        <v>0.1014851770560501</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.6712500229730274</v>
+        <v>0.3699278594578229</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.6246379955354391</v>
+        <v>-0.2780953835564855</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.7970729133833018</v>
+        <v>0.5440583266793628</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.7412238779055235</v>
+        <v>-0.1420110919559328</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.2127024916339914</v>
+        <v>0.5978779409877452</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.7002324449513795</v>
+        <v>0.2897607692978547</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.7674689079801785</v>
+        <v>-0.1980505970663184</v>
       </c>
       <c r="HD4" t="n">
-        <v>0</v>
+        <v>-0.2632557890884666</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.2687285820979071</v>
+        <v>0.7712949226014743</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.4157671765584163</v>
+        <v>0.3753929509373511</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9117765750165031</v>
+        <v>0.7667893168435738</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.4976704459315694</v>
+        <v>0.3436787039982279</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.8880326323241876</v>
+        <v>-0.2640981619898538</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.8664708844141539</v>
+        <v>0.5347392534388067</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.8181010413623098</v>
+        <v>-0.641233221340469</v>
       </c>
       <c r="HL4" t="n">
-        <v>2.580221450837805e-15</v>
+        <v>0.5970935873269329</v>
       </c>
       <c r="HM4" t="n">
-        <v>2.580221450837805e-15</v>
+        <v>0.2445332632623892</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.8231528073310858</v>
+        <v>0.1617786599892624</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.6877221198662926</v>
+        <v>0.3649475830422358</v>
       </c>
       <c r="HP4" t="n">
-        <v>0</v>
+        <v>0.2812075351133557</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.1763995341523813</v>
+        <v>-0.1631521453464929</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.4285227121140864</v>
+        <v>-0.6492930300227039</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.6214386329250898</v>
+        <v>0.203593600211304</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.6775961823397681</v>
+        <v>-0.3982789617627576</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.6532063047542113</v>
+        <v>0.6821505134682725</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.8970398813595321</v>
+        <v>0.6340125179770874</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.8312347681534245</v>
+        <v>0.5429074722473298</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.8338513494262552</v>
+        <v>0.653256980244233</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.3407688004607026</v>
+        <v>0.637120052502272</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8273268309051599</v>
+        <v>0.3989611230890374</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6846189387944968</v>
+        <v>-0.3313540572443114</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.4909928007539758</v>
+        <v>0.2271167874876363</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.480213105565961</v>
+        <v>0.6312911617527437</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.5337051076443019</v>
+        <v>-0.2578467589304926</v>
       </c>
       <c r="IE4" t="n">
-        <v>0.2764629829965214</v>
+        <v>0.5379046318527975</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.5686321781431443</v>
+        <v>0.1421490582042984</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.8692461082349777</v>
+        <v>-0.6131316225374382</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.6082875705367131</v>
+        <v>-0.1135854454030844</v>
       </c>
       <c r="II4" t="n">
-        <v>0.5151037443976246</v>
+        <v>0.5379046318527975</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.6791203412959609</v>
+        <v>0.7249196892808747</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.2616351187647554</v>
+        <v>-0.3728453671734502</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.8092229445615235</v>
+        <v>0.2337134326316073</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.06018414938120635</v>
+        <v>0.4439274742448907</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.1641747254967374</v>
+        <v>-0.6448703199888928</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.1323190658292109</v>
+        <v>0.5459253303044346</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.1803707008484547</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.7487899961265693</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.8312475908738113</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4411010464782089</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.6576463330890846</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.6229319167831749</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8204695857646849</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8083993694123229</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7116858457563333</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>0.2385483456341533</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5210842776439483</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1610386792119697</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>0.3189198487424548</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.5675329485407958</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.6569629041779886</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2194488774202434</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.6247674315509862</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.2367018222065705</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.6569629041779886</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.7676021995978313</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.3931602789650572</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.2401970437581716</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.3770926518093244</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.4443592330248612</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.8809961143734822</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.9362253736482634</v>
+        <v>0.7880794820067187</v>
       </c>
     </row>
   </sheetData>
